--- a/data/hotels_by_city/Dallas/Dallas_shard_594.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_594.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,156 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r420566045-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>244382</t>
+  </si>
+  <si>
+    <t>420566045</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>It's an ok hotel</t>
+  </si>
+  <si>
+    <t>Stayed here only a brief time. Honestly wasn't too impressed. You have to pay for wi-fi, the beds ain't that impressive; There's no microwave; No Coffee pot nor a fridge in the room. If you want coffee you have to goto the office to get it (and it's crap); They had issues with one of the fire alarms in a room while I was there; Prices are decent; rooms are quiet for being so close to the highway, but I wouldn't stay here again....</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r420126801-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>420126801</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>I willl pay more and leave my own light on</t>
+  </si>
+  <si>
+    <t>This place is a dive. DIrty floors, leaking and barely functional air conditioning, rude staff. I will never recommend this. Vending machine that don't work. I don't think there is one thing that would be worth staying here for.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Ft Worth - North Richland Hills, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>This place is a dive. DIrty floors, leaking and barely functional air conditioning, rude staff. I will never recommend this. Vending machine that don't work. I don't think there is one thing that would be worth staying here for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r317856240-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>317856240</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Fine if you just want a bed for the night</t>
+  </si>
+  <si>
+    <t>Similar to the other Motel 6 I stayed in on this trip - nothing special but at £30 it was fine for the 12hrs I spent there. Again, not spotless but clean enough that I could sleep and shower. Very strong smell of cleaning products, which is strange considering it could have been cleaner... No free wifi, no hairdryer... again not essentials but it would be nice. Bed, shower and A/C were all ok. It's the kind of place I don't mind staying for a quick stop, but I wouldn't want to hang around.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r219039328-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>219039328</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Like a comedy but far from funny!</t>
+  </si>
+  <si>
+    <t>Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...
+1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.
+2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.
+3) The curtains were a disaster with missing hooks, parts missing, and some of the holes patched with electrical tape.
+4) Two overhead fixtures were both missing the globes, one of the globes was in the dresser drawer.
+5) There was no clock, no alarm, and no phone.  The phone was there but was not plugged in and extremely doubtful that it would work if it was plugged in.
+6) The furniture should have been replaced at least 5 years ago.  One of the cushions on the couch had a broken zipper.  It was a sofa sleeper that was extremely difficult to sit on.  The end tables and bench were wobbly because the joints had let go.
+7) There had been some painting done at some point because there was paint on the headboard, the doors, and molding.
+8) The only 'amenity' was bar soap, toilet tissue, and a few plastic glasses.  No Kleenex, shampoo or conditioner, lotion, coffee, hairdryer, etc.
+9) The bed sucked.  The mattress was...Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.3) The curtains were a disaster with missing hooks, parts missing, and some of the holes patched with electrical tape.4) Two overhead fixtures were both missing the globes, one of the globes was in the dresser drawer.5) There was no clock, no alarm, and no phone.  The phone was there but was not plugged in and extremely doubtful that it would work if it was plugged in.6) The furniture should have been replaced at least 5 years ago.  One of the cushions on the couch had a broken zipper.  It was a sofa sleeper that was extremely difficult to sit on.  The end tables and bench were wobbly because the joints had let go.7) There had been some painting done at some point because there was paint on the headboard, the doors, and molding.8) The only 'amenity' was bar soap, toilet tissue, and a few plastic glasses.  No Kleenex, shampoo or conditioner, lotion, coffee, hairdryer, etc.9) The bed sucked.  The mattress was probably original to the location if they didn't buy it used.  We had limited sleep because we kept falling together in the middle.10) There were no pictures on the wall and the door on the closet was gone.We were tired and so we just went with staying there even though we debated finding another hotel.  So, the hotel may have gotten a rating of one notch above terrible until the next morning, when THERE WAS NO SHOWER!  The faucet did not turn on.When we left we noticed that even the lobby was filthy and the hardwood floor was warped and coming up.  We have had good luck with other Motel 6 locations until this experience and now wonder how many other locations are like this.  We are wondering if we just 'got lucky' with some of the good ones.  If you are going to take a chance with Motel 6, don't choose this one!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...
+1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.
+2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.
+3) The curtains were a disaster with missing hooks, parts missing, and some of the holes patched with electrical tape.
+4) Two overhead fixtures were both missing the globes, one of the globes was in the dresser drawer.
+5) There was no clock, no alarm, and no phone.  The phone was there but was not plugged in and extremely doubtful that it would work if it was plugged in.
+6) The furniture should have been replaced at least 5 years ago.  One of the cushions on the couch had a broken zipper.  It was a sofa sleeper that was extremely difficult to sit on.  The end tables and bench were wobbly because the joints had let go.
+7) There had been some painting done at some point because there was paint on the headboard, the doors, and molding.
+8) The only 'amenity' was bar soap, toilet tissue, and a few plastic glasses.  No Kleenex, shampoo or conditioner, lotion, coffee, hairdryer, etc.
+9) The bed sucked.  The mattress was...Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.3) The curtains were a disaster with missing hooks, parts missing, and some of the holes patched with electrical tape.4) Two overhead fixtures were both missing the globes, one of the globes was in the dresser drawer.5) There was no clock, no alarm, and no phone.  The phone was there but was not plugged in and extremely doubtful that it would work if it was plugged in.6) The furniture should have been replaced at least 5 years ago.  One of the cushions on the couch had a broken zipper.  It was a sofa sleeper that was extremely difficult to sit on.  The end tables and bench were wobbly because the joints had let go.7) There had been some painting done at some point because there was paint on the headboard, the doors, and molding.8) The only 'amenity' was bar soap, toilet tissue, and a few plastic glasses.  No Kleenex, shampoo or conditioner, lotion, coffee, hairdryer, etc.9) The bed sucked.  The mattress was probably original to the location if they didn't buy it used.  We had limited sleep because we kept falling together in the middle.10) There were no pictures on the wall and the door on the closet was gone.We were tired and so we just went with staying there even though we debated finding another hotel.  So, the hotel may have gotten a rating of one notch above terrible until the next morning, when THERE WAS NO SHOWER!  The faucet did not turn on.When we left we noticed that even the lobby was filthy and the hardwood floor was warped and coming up.  We have had good luck with other Motel 6 locations until this experience and now wonder how many other locations are like this.  We are wondering if we just 'got lucky' with some of the good ones.  If you are going to take a chance with Motel 6, don't choose this one!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r198195924-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>198195924</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Had internet issues, dogs in room next door constantly barking, hallway smelled terrible, very rarely was an attendant at the desk, rude obnoxious loud people hanging out in hallways and stair wells, half the light didn't work in the room, apparently there was a stabbing in a room during our stay as a cop knocked on our door wanting to question us, people wandering around at all hours of the night trying to borrow various items, got threatened by 2 other guests and front desk did nothing to remedy this. I am very displeased with this motel 6, very off putting to the brand.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r188013188-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>188013188</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Just horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed ther at the end of October 2013 and the first thing we noticed was that the hallway smelled of urine. The bathroom had wallpaper hanging down and black mold underneath. The light fixtures had missing bulbs and we're not covered. Toilet paper holder broken nd pper was just sitting on the counter. </t>
+  </si>
+  <si>
+    <t>October 2013</t>
   </si>
 </sst>
 </file>
@@ -645,6 +795,376 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_594.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_594.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>sirmaverick2010</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Patricia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r420126801-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>This place is a dive. DIrty floors, leaking and barely functional air conditioning, rude staff. I will never recommend this. Vending machine that don't work. I don't think there is one thing that would be worth staying here for.More</t>
   </si>
   <si>
+    <t>littlemissnuisance</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r317856240-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -220,6 +229,9 @@
   </si>
   <si>
     <t>October 2015</t>
+  </si>
+  <si>
+    <t>Lou U</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r219039328-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -264,6 +276,9 @@
 9) The bed sucked.  The mattress was...Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.3) The curtains were a disaster with missing hooks, parts missing, and some of the holes patched with electrical tape.4) Two overhead fixtures were both missing the globes, one of the globes was in the dresser drawer.5) There was no clock, no alarm, and no phone.  The phone was there but was not plugged in and extremely doubtful that it would work if it was plugged in.6) The furniture should have been replaced at least 5 years ago.  One of the cushions on the couch had a broken zipper.  It was a sofa sleeper that was extremely difficult to sit on.  The end tables and bench were wobbly because the joints had let go.7) There had been some painting done at some point because there was paint on the headboard, the doors, and molding.8) The only 'amenity' was bar soap, toilet tissue, and a few plastic glasses.  No Kleenex, shampoo or conditioner, lotion, coffee, hairdryer, etc.9) The bed sucked.  The mattress was probably original to the location if they didn't buy it used.  We had limited sleep because we kept falling together in the middle.10) There were no pictures on the wall and the door on the closet was gone.We were tired and so we just went with staying there even though we debated finding another hotel.  So, the hotel may have gotten a rating of one notch above terrible until the next morning, when THERE WAS NO SHOWER!  The faucet did not turn on.When we left we noticed that even the lobby was filthy and the hardwood floor was warped and coming up.  We have had good luck with other Motel 6 locations until this experience and now wonder how many other locations are like this.  We are wondering if we just 'got lucky' with some of the good ones.  If you are going to take a chance with Motel 6, don't choose this one!!!More</t>
   </si>
   <si>
+    <t>Karaleigh303</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r198195924-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -277,6 +292,9 @@
   </si>
   <si>
     <t>Had internet issues, dogs in room next door constantly barking, hallway smelled terrible, very rarely was an attendant at the desk, rude obnoxious loud people hanging out in hallways and stair wells, half the light didn't work in the room, apparently there was a stabbing in a room during our stay as a cop knocked on our door wanting to question us, people wandering around at all hours of the night trying to borrow various items, got threatened by 2 other guests and front desk did nothing to remedy this. I am very displeased with this motel 6, very off putting to the brand.</t>
+  </si>
+  <si>
+    <t>124leslien</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r188013188-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -799,43 +817,47 @@
       <c r="A2" t="n">
         <v>37039</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169488</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -853,50 +875,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37039</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>9674</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -912,56 +938,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37039</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -979,50 +1009,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37039</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1042,41 +1076,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37039</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
@@ -1105,50 +1143,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37039</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169492</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1162,7 +1204,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_594.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_594.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>sirmaverick2010</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r442189463-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>56371</t>
+  </si>
+  <si>
+    <t>244382</t>
+  </si>
+  <si>
+    <t>442189463</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>This location has the nicest staff.</t>
+  </si>
+  <si>
+    <t>The rooms had recently been renovated and I was pleasantly surprised how nice they looked and how clean they were. I also was very impressed with the friendly and professional staff from the morning ladies (Nancy &amp; Roxanne) in the office that took the time to speak and ask me about my day or if I needed anything during my stay. The overnight gentleman (Joseph) wo always asks about my stay and if there is anything else that would make my stay any better to the housekeeping staff that are quick and efficient to clean the room or even just make up the bed and make sure you have all the supplies you need ie. toilet paper, towels, soap, etc. The maintenance staff that jumps right on any problem you might have. To the Awesome manager that runs a great well oiled machine at this location. I plan on staying here Everytime I am in town for business or pleasure. I would have gave them 5 across the board but for some reason it would only let me make 3 (average) on Service , Cleanliness, and Location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The rooms had recently been renovated and I was pleasantly surprised how nice they looked and how clean they were. I also was very impressed with the friendly and professional staff from the morning ladies (Nancy &amp; Roxanne) in the office that took the time to speak and ask me about my day or if I needed anything during my stay. The overnight gentleman (Joseph) wo always asks about my stay and if there is anything else that would make my stay any better to the housekeeping staff that are quick and efficient to clean the room or even just make up the bed and make sure you have all the supplies you need ie. toilet paper, towels, soap, etc. The maintenance staff that jumps right on any problem you might have. To the Awesome manager that runs a great well oiled machine at this location. I plan on staying here Everytime I am in town for business or pleasure. I would have gave them 5 across the board but for some reason it would only let me make 3 (average) on Service , Cleanliness, and Location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r438607151-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>438607151</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Drug deals welcome, pets not so much.</t>
+  </si>
+  <si>
+    <t>There are nightly Fire alarms and cop calls, but when my dogs bark from my car while I go into my room for 5 minutes to change, there's "apparently" complaints. So if you're okay with be woken up every night at 3am to flashing lights, this place is great but you better not let your dogs bark from the car at 4 in the afternoon, cause this place is perfect for drug deals, but not pet owners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r420566045-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
-    <t>56371</t>
-  </si>
-  <si>
-    <t>244382</t>
-  </si>
-  <si>
     <t>420566045</t>
   </si>
   <si>
@@ -177,12 +216,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Patricia B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r420126801-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -198,9 +231,6 @@
     <t>This place is a dive. DIrty floors, leaking and barely functional air conditioning, rude staff. I will never recommend this. Vending machine that don't work. I don't think there is one thing that would be worth staying here for.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Ft Worth - North Richland Hills, responded to this reviewResponded September 20, 2016</t>
   </si>
   <si>
@@ -210,9 +240,6 @@
     <t>This place is a dive. DIrty floors, leaking and barely functional air conditioning, rude staff. I will never recommend this. Vending machine that don't work. I don't think there is one thing that would be worth staying here for.More</t>
   </si>
   <si>
-    <t>littlemissnuisance</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r317856240-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -231,7 +258,49 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Lou U</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r248286852-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>248286852</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was very nice to us but as soon as we walked into our room it reeked of I don't even know what. We looked at the mattresses and they both had remnants of bed bug infestation. We also found 3 cockroaches crawling all over the walls in the bathroom. We called the manager and they gave us a different room. One bed still had remnants of bed bugs. The shower and sink appeared clean but was stained and cracked. I opened up a folded towel and someone else's hair was in it already. After we left I dumped out my bag and found a dead baby cockroach. So that was horrifying. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Ft Worth - North Richland Hills, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was very nice to us but as soon as we walked into our room it reeked of I don't even know what. We looked at the mattresses and they both had remnants of bed bug infestation. We also found 3 cockroaches crawling all over the walls in the bathroom. We called the manager and they gave us a different room. One bed still had remnants of bed bugs. The shower and sink appeared clean but was stained and cracked. I opened up a folded towel and someone else's hair was in it already. After we left I dumped out my bag and found a dead baby cockroach. So that was horrifying. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r242186539-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>242186539</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Disabled Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was very small. The roll in shower was disgusting. Tile was falling off, dirty, gross!  I felt as if I needed to wear shoes while bathing. Bathroom sink was clogged and took a long time to drain. I was told that property was scheduled for renovation in March. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r219039328-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
@@ -261,9 +330,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...
 1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.
 2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.
@@ -276,9 +342,6 @@
 9) The bed sucked.  The mattress was...Where do I start?  There were so many things wrong with this stay that I would rate it as the worst hotel experience I have ever had.  Here are the list of issues...1) Everything was filthy, the carpet, the shower, the furniture, the walls...all needed to be replaced, scrubbed, and/or painted.2) The sheets on the bed had burn holes and were so old that the bottom sheet kept letting loose.3) The curtains were a disaster with missing hooks, parts missing, and some of the holes patched with electrical tape.4) Two overhead fixtures were both missing the globes, one of the globes was in the dresser drawer.5) There was no clock, no alarm, and no phone.  The phone was there but was not plugged in and extremely doubtful that it would work if it was plugged in.6) The furniture should have been replaced at least 5 years ago.  One of the cushions on the couch had a broken zipper.  It was a sofa sleeper that was extremely difficult to sit on.  The end tables and bench were wobbly because the joints had let go.7) There had been some painting done at some point because there was paint on the headboard, the doors, and molding.8) The only 'amenity' was bar soap, toilet tissue, and a few plastic glasses.  No Kleenex, shampoo or conditioner, lotion, coffee, hairdryer, etc.9) The bed sucked.  The mattress was probably original to the location if they didn't buy it used.  We had limited sleep because we kept falling together in the middle.10) There were no pictures on the wall and the door on the closet was gone.We were tired and so we just went with staying there even though we debated finding another hotel.  So, the hotel may have gotten a rating of one notch above terrible until the next morning, when THERE WAS NO SHOWER!  The faucet did not turn on.When we left we noticed that even the lobby was filthy and the hardwood floor was warped and coming up.  We have had good luck with other Motel 6 locations until this experience and now wonder how many other locations are like this.  We are wondering if we just 'got lucky' with some of the good ones.  If you are going to take a chance with Motel 6, don't choose this one!!!More</t>
   </si>
   <si>
-    <t>Karaleigh303</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r198195924-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -294,9 +357,6 @@
     <t>Had internet issues, dogs in room next door constantly barking, hallway smelled terrible, very rarely was an attendant at the desk, rude obnoxious loud people hanging out in hallways and stair wells, half the light didn't work in the room, apparently there was a stabbing in a room during our stay as a cop knocked on our door wanting to question us, people wandering around at all hours of the night trying to borrow various items, got threatened by 2 other guests and front desk did nothing to remedy this. I am very displeased with this motel 6, very off putting to the brand.</t>
   </si>
   <si>
-    <t>124leslien</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r188013188-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
   </si>
   <si>
@@ -313,6 +373,33 @@
   </si>
   <si>
     <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56371-d244382-r168613823-Motel_6_Ft_Worth_North_Richland_Hills-North_Richland_Hills_Texas.html</t>
+  </si>
+  <si>
+    <t>168613823</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Gone Downhill</t>
+  </si>
+  <si>
+    <t>I've stayed at this location before &amp; have always been pleased, but not this trip. The internet connection was terrible &amp; I killed several roaches that night. The area outside the door smelled like urine. To their credit they did refund me my money when I checked out the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Ft Worth - North Richland Hills, responded to this reviewResponded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2013</t>
+  </si>
+  <si>
+    <t>I've stayed at this location before &amp; have always been pleased, but not this trip. The internet connection was terrible &amp; I killed several roaches that night. The area outside the door smelled like urine. To their credit they did refund me my money when I checked out the next morning.More</t>
   </si>
 </sst>
 </file>
@@ -817,54 +904,52 @@
       <c r="A2" t="n">
         <v>37039</v>
       </c>
-      <c r="B2" t="n">
-        <v>169488</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>3</v>
@@ -875,128 +960,112 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37039</v>
       </c>
-      <c r="B3" t="n">
-        <v>9674</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37039</v>
       </c>
-      <c r="B4" t="n">
-        <v>169489</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
@@ -1009,63 +1078,57 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37039</v>
       </c>
-      <c r="B5" t="n">
-        <v>169490</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>1</v>
@@ -1073,69 +1136,67 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37039</v>
       </c>
-      <c r="B6" t="n">
-        <v>169491</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1143,68 +1204,385 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37039</v>
       </c>
-      <c r="B7" t="n">
-        <v>169492</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
       <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37039</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
